--- a/Örnek 6 - Koşullu Biçimlendirme.xlsx
+++ b/Örnek 6 - Koşullu Biçimlendirme.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D573B21B-EE33-4283-9A88-FF2629985CF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2264068-6E5E-45B4-84D7-D1C5FEEE3836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>KIŞ</t>
   </si>
@@ -75,13 +67,19 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -104,8 +102,20 @@
       <name val="Arial Tur"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +146,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -272,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,14 +317,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -601,23 +647,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="33.299999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -633,191 +679,197 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="11">
         <v>5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>22</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>15</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>21</v>
       </c>
       <c r="D3" s="7">
         <v>33</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>25</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>19</v>
       </c>
       <c r="D4" s="7">
         <v>26</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>21</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="22">
+        <v>20215070055</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>-26</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>18</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="12">
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>24</v>
       </c>
       <c r="D6" s="7">
         <v>42</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>21</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>22</v>
       </c>
       <c r="D7" s="7">
         <v>30</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>23</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="11">
         <v>-21</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="9" spans="1:11" ht="13.6" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:11" ht="54.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="5"/>
     </row>
   </sheetData>
